--- a/Nuevo Enfoque Datos/dominanciaZonaNorte.xlsx
+++ b/Nuevo Enfoque Datos/dominanciaZonaNorte.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\talento\Downloads\Nuevo Enfoque Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECDDFC10-C095-4F58-AFC1-5EA801CE041C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB0F001-ECC4-4EC9-AE57-06FF5F60FCF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -117,11 +117,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -426,7 +427,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -463,16 +466,16 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -480,16 +483,16 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
